--- a/budget/cloud Appservice comparison.xlsx
+++ b/budget/cloud Appservice comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emil\Documents\GitHub\anovote\wiki\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654DA190-AB9D-4298-94CC-320E56EE4648}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E81D26-BB1C-4020-AB14-180F25E3D585}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -268,10 +268,19 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -280,22 +289,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -584,739 +584,706 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="2" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="2" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="5" t="s">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="6" t="s">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6" t="s">
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="5" t="s">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="10" t="s">
+      <c r="R5" s="3"/>
+      <c r="S5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="10"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="2" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="2" t="s">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="2" t="s">
+      <c r="R9" s="9"/>
+      <c r="S9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="6" t="s">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6" t="s">
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="6" t="s">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="9" t="s">
+      <c r="R11" s="2"/>
+      <c r="S11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="9"/>
+      <c r="T11" s="10"/>
       <c r="U11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="2" t="s">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="2" t="s">
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R16" s="7"/>
-      <c r="S16" s="2" t="s">
+      <c r="R16" s="9"/>
+      <c r="S16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1" t="s">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1" t="s">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="8" t="s">
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="5" t="s">
+      <c r="R17" s="1"/>
+      <c r="S17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1" t="s">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1" t="s">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="6" t="s">
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6" t="s">
+      <c r="R18" s="2"/>
+      <c r="S18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1" t="s">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1" t="s">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="5" t="s">
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="10" t="s">
+      <c r="R19" s="3"/>
+      <c r="S19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T19" s="10"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="A8:T8"/>
@@ -1333,55 +1300,88 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
